--- a/文档/其他文档/Others/Jobs/职业生涯所有工作地点信息汇总.xlsx
+++ b/文档/其他文档/Others/Jobs/职业生涯所有工作地点信息汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eason Code Project\DatasOnTelecom\文档\其他文档\Others\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017.4.17 - 至今</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>待定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -218,6 +214,10 @@
   </si>
   <si>
     <t>实习 - 大学本科阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.4.17 - 2022.9.30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>14</v>
@@ -735,7 +735,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>14</v>
@@ -773,7 +773,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>14</v>
@@ -811,7 +811,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>25</v>
@@ -849,7 +849,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>25</v>
@@ -887,7 +887,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>25</v>
@@ -931,7 +931,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" s="6">
         <v>543</v>
@@ -969,10 +969,10 @@
         <v>14</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L9" s="6">
-        <v>2084</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1007,7 +1007,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L10" s="6"/>
     </row>

--- a/文档/其他文档/Others/Jobs/职业生涯所有工作地点信息汇总.xlsx
+++ b/文档/其他文档/Others/Jobs/职业生涯所有工作地点信息汇总.xlsx
@@ -217,7 +217,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017.4.17 - 2022.9.30</t>
+    <t>2017.4.17 - 2022.10.31</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +972,7 @@
         <v>47</v>
       </c>
       <c r="L9" s="6">
-        <v>1992</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">

--- a/文档/其他文档/Others/Jobs/职业生涯所有工作地点信息汇总.xlsx
+++ b/文档/其他文档/Others/Jobs/职业生涯所有工作地点信息汇总.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eason Code Project\DatasOnTelecom\文档\其他文档\Others\Jobs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>公司名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -181,14 +176,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>逸仙路38号 - 中国电信上海公司逸仙分局</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>虹口区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>全职</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -201,10 +188,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>待定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2015.8.24 - 2017.2.17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -217,7 +200,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017.4.17 - 2022.10.31</t>
+    <t>2017.4.17 - 2023.9.26</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -612,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -629,7 +612,7 @@
     <col min="9" max="9" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -697,7 +680,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>14</v>
@@ -735,7 +718,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>14</v>
@@ -773,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>14</v>
@@ -811,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>25</v>
@@ -849,13 +832,13 @@
         <v>20</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L6" s="5">
         <v>268</v>
@@ -887,13 +870,13 @@
         <v>20</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L7" s="5">
         <v>29</v>
@@ -925,13 +908,13 @@
         <v>20</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L8" s="6">
         <v>543</v>
@@ -963,56 +946,20 @@
         <v>20</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L9" s="6">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6">
-        <v>12.7</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="6">
-        <v>10</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="6"/>
+        <v>2353</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L10"/>
+  <autoFilter ref="A1:L9"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/文档/其他文档/Others/Jobs/职业生涯所有工作地点信息汇总.xlsx
+++ b/文档/其他文档/Others/Jobs/职业生涯所有工作地点信息汇总.xlsx
@@ -200,7 +200,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017.4.17 - 2023.9.26</t>
+    <t>2017.4.17 - 2024.2.29</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -603,14 +603,12 @@
   <cols>
     <col min="1" max="1" width="48.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
@@ -955,7 +953,7 @@
         <v>44</v>
       </c>
       <c r="L9" s="6">
-        <v>2353</v>
+        <v>2509</v>
       </c>
     </row>
   </sheetData>

--- a/文档/其他文档/Others/Jobs/职业生涯所有工作地点信息汇总.xlsx
+++ b/文档/其他文档/Others/Jobs/职业生涯所有工作地点信息汇总.xlsx
@@ -200,7 +200,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017.4.17 - 2024.2.29</t>
+    <t>2017.4.17 - 2024.4.16</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -953,7 +953,7 @@
         <v>44</v>
       </c>
       <c r="L9" s="6">
-        <v>2509</v>
+        <v>2556</v>
       </c>
     </row>
   </sheetData>
